--- a/语法/动词活用.xlsx
+++ b/语法/动词活用.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\JapaneseLearn\语法\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC1E0E9-EFE3-45D7-BD24-2813385F8631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20997094-4902-49FE-A8D0-2461D904073A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
   <si>
     <t>动词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,14 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>五段动词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一段动词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不规则动词（变格动词）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,43 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>さ变动词（する）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>か变动词（くる）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>るー＞ます</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（うー＞い）＋ます</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>します</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・きます
-（うー＞い）＋（るー＞ます）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>るー＞て</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>です</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,10 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>るー＞ない</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（うー＞あ）＋ない</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,22 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>るー＞</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>よう</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>しよう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -237,59 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>しろ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>せよ</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>るー＞</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ろ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・よ
-くれるー＞くれ</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>うー＞え</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -318,12 +201,113 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>つうる（いちり）ー＞って
+    <t>可能形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使役形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使役被动形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（うー＞え）＋る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>るー＞られる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こられる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>するー＞できる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（うー＞あ）＋せる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>るー＞させる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こさせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>るー＞させられる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こさせられる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（うー＞あ）＋される（せられる）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>させる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>させられる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>るー＞て
+语干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>るー＞ない
+语干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受身形（被动形）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>るー＞よう
+语干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">つうる（いちり）ー＞って
 むぶぬ（みびに）ー＞んで
 く（き）ー＞いて
 ぐ（ぎ）ー＞いで
 す（し）ー＞して
-いくー＞いって（い(い)て）</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>いくー＞いって</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（い(い)て）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -332,124 +316,398 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Yu Gothic"/>
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>・きて</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>きて
 （うー＞い）＋（るー＞て）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
+      <t>（うー＞あ）＋れる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>るー＞られる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>される
+あれる</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>（すれば</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>・くれば</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>くれば）
 ＋れば</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可能形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受身形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使役形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使役被动形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（うー＞え）＋る</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>るー＞られる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>こられる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>するー＞できる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（うー＞あ）＋れる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（うー＞あ）＋せる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>るー＞させる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>こさせる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>るー＞させられる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>こさせられる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（うー＞あ）＋される（せられる）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>される</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>させる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>させられる</t>
+    <r>
+      <t>るー＞ろ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>よ
+くれるー＞くれ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>しろ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>せよ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活用形＝語幹＋活用語尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">るー＞ます
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>見</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ます</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>一段动词(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>みる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>五段动词(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>か</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>く</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>さ变动词（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>か变动词（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>くる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">（うー＞い）＋（るー＞ます）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>し</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ます・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>き</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ます</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活用语尾（うー＞い）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+ます
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>き</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ます</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,7 +715,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,21 +738,49 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="Microsoft YaHei UI"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -516,18 +802,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,6 +841,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -580,7 +872,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -594,67 +886,91 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -939,16 +1255,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="37.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.58203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="25.4140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="29.33203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="2.6640625" style="4" customWidth="1"/>
@@ -959,368 +1275,389 @@
     <col min="12" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="20" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="21" t="s">
-        <v>20</v>
+      <c r="J1" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="20" t="s">
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="20"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>12</v>
+    <row r="3" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>71</v>
       </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="18"/>
-      <c r="H4" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
+    <row r="4" spans="1:11" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="26"/>
+      <c r="H4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:11" ht="92" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="23"/>
+    <row r="5" spans="1:11" ht="101.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23"/>
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="32"/>
       <c r="H5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="25"/>
+        <v>11</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="24" t="s">
+      <c r="C6" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="C7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="1:11" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21"/>
+      <c r="B8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="21"/>
+      <c r="C8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="21"/>
+    <row r="9" spans="1:11" ht="61" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="10" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>37</v>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="21"/>
+      <c r="B10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>69</v>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="21"/>
+      <c r="B11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="16"/>
       <c r="C12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="H12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="23"/>
-      <c r="H12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>62</v>
+      <c r="A13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="11" t="s">
-        <v>46</v>
+      <c r="A14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>44</v>
+        <v>64</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>41</v>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="21"/>
+        <v>35</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>41</v>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>51</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="15"/>
     </row>
     <row r="17" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="18" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="19" s="4" customFormat="1" ht="406" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="A4:A6"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="E4:F4"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7D2833-3B95-41CF-904A-BA79CB84685E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="114.58203125" style="14" customWidth="1"/>
+    <col min="2" max="16384" width="8.6640625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="97.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>